--- a/with logs for unschedule with saturday sunday/excel_schedules/room_221_genetic_schedule.xlsx
+++ b/with logs for unschedule with saturday sunday/excel_schedules/room_221_genetic_schedule.xlsx
@@ -525,7 +525,91 @@
           <t>8:30 AM - 9:00 AM</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
+    </row>
+    <row r="4" ht="50" customHeight="1">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>9:00 AM - 9:30 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="50" customHeight="1">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>9:30 AM - 10:00 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="50" customHeight="1">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>10:00 AM - 10:30 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="50" customHeight="1">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>10:30 AM - 11:00 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="50" customHeight="1">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>11:00 AM - 11:30 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="50" customHeight="1">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>11:30 AM - 12:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="50" customHeight="1">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>12:00 PM - 12:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="50" customHeight="1">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>12:30 PM - 1:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="50" customHeight="1">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>1:00 PM - 1:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="50" customHeight="1">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>1:30 PM - 2:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="50" customHeight="1">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>2:00 PM - 2:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="50" customHeight="1">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>2:30 PM - 3:00 PM</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
         <is>
           <t>QP 426 - Quantum Physics
 3D
@@ -533,100 +617,13 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="50" customHeight="1">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>9:00 AM - 9:30 AM</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="n"/>
-    </row>
-    <row r="5" ht="50" customHeight="1">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>9:30 AM - 10:00 AM</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="n"/>
-    </row>
-    <row r="6" ht="50" customHeight="1">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>10:00 AM - 10:30 AM</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="n"/>
-    </row>
-    <row r="7" ht="50" customHeight="1">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>10:30 AM - 11:00 AM</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="n"/>
-    </row>
-    <row r="8" ht="50" customHeight="1">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>11:00 AM - 11:30 AM</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="50" customHeight="1">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>11:30 AM - 12:00 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="50" customHeight="1">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>12:00 PM - 12:30 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="50" customHeight="1">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>12:30 PM - 1:00 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="50" customHeight="1">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>1:00 PM - 1:30 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="50" customHeight="1">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>1:30 PM - 2:00 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="50" customHeight="1">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>2:00 PM - 2:30 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="50" customHeight="1">
-      <c r="A15" s="2" t="inlineStr">
-        <is>
-          <t>2:30 PM - 3:00 PM</t>
-        </is>
-      </c>
-    </row>
     <row r="16" ht="50" customHeight="1">
       <c r="A16" s="2" t="inlineStr">
         <is>
           <t>3:00 PM - 3:30 PM</t>
         </is>
       </c>
+      <c r="B16" s="2" t="n"/>
     </row>
     <row r="17" ht="50" customHeight="1">
       <c r="A17" s="2" t="inlineStr">
@@ -634,6 +631,7 @@
           <t>3:30 PM - 4:00 PM</t>
         </is>
       </c>
+      <c r="B17" s="2" t="n"/>
     </row>
     <row r="18" ht="50" customHeight="1">
       <c r="A18" s="2" t="inlineStr">
@@ -641,6 +639,7 @@
           <t>4:00 PM - 4:30 PM</t>
         </is>
       </c>
+      <c r="B18" s="2" t="n"/>
     </row>
     <row r="19" ht="50" customHeight="1">
       <c r="A19" s="2" t="inlineStr">
@@ -648,6 +647,7 @@
           <t>4:30 PM - 5:00 PM</t>
         </is>
       </c>
+      <c r="B19" s="2" t="n"/>
     </row>
     <row r="20" ht="50" customHeight="1">
       <c r="A20" s="2" t="inlineStr">
@@ -707,7 +707,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="B15:B19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
